--- a/resources/templates/attendance_template.xlsx
+++ b/resources/templates/attendance_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F894271-3EA0-47AE-BDA6-31FE6337D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95969D0B-92C7-4CAD-AFDC-12F5677C6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B697306D-77F2-422E-9805-5EAFB0210C1B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/resources/templates/attendance_template.xlsx
+++ b/resources/templates/attendance_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95969D0B-92C7-4CAD-AFDC-12F5677C6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4D6BA-63D6-4A1D-BB85-421B1B4EC9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11025" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業実績表" sheetId="2" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -302,6 +302,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -311,15 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,9 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B697306D-77F2-422E-9805-5EAFB0210C1B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,7 +855,7 @@
       <c r="AJ5" s="10"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -868,41 +865,41 @@
         <v>9</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
       <c r="AJ6" s="10"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -910,121 +907,121 @@
         <v>10</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
       <c r="AJ7" s="10"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
       <c r="AJ8" s="10"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
       <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="9"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -1032,237 +1029,237 @@
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
       <c r="AJ10" s="10"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
       <c r="AJ11" s="10"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
       <c r="AJ12" s="10"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
       <c r="AJ13" s="10"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
       <c r="AJ14" s="10"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
       <c r="AJ15" s="10"/>
     </row>
   </sheetData>

--- a/resources/templates/attendance_template.xlsx
+++ b/resources/templates/attendance_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5BC77-275D-4443-B62D-3D04CFB12AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E502C1-227D-4CBF-A7D8-58EFD7CA986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="19020" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業実績表" sheetId="2" r:id="rId1"/>
@@ -887,6 +887,18 @@
     <xf numFmtId="20" fontId="8" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="8" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="8" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -908,20 +920,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1259,8 +1259,10 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1278,11 +1280,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64">
+      <c r="E1" s="68">
         <v>45658</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
@@ -1870,84 +1872,84 @@
       <c r="AJ15" s="45"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="65" t="s">
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="67"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F25" s="46"/>
@@ -1956,8 +1958,8 @@
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="27" spans="5:13" ht="18.75" x14ac:dyDescent="0.4">
       <c r="J27" s="48" t="s">
@@ -1967,6 +1969,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="F20:K20"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L24:M24"/>
@@ -1974,13 +1983,6 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
